--- a/contests/rttbc25/RTTBC25-Schedule-for-Google-Calendar.xlsx
+++ b/contests/rttbc25/RTTBC25-Schedule-for-Google-Calendar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/299f8723705ec823/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/299f8723705ec823/Webmaster/gallop-racing.com/contests/rttbc25/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{17A1D9B9-8994-4361-99E0-CCA1520F2178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19290" yWindow="300" windowWidth="18885" windowHeight="19770" xr2:uid="{27DBC710-212C-4B60-B927-B9EE36866F81}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{27DBC710-212C-4B60-B927-B9EE36866F81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -616,7 +616,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -649,7 +649,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -990,7 +990,7 @@
   <dimension ref="A1:E170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/contests/rttbc25/RTTBC25-Schedule-for-Google-Calendar.xlsx
+++ b/contests/rttbc25/RTTBC25-Schedule-for-Google-Calendar.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/299f8723705ec823/Webmaster/gallop-racing.com/contests/rttbc25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17A1D9B9-8994-4361-99E0-CCA1520F2178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="278" documentId="8_{17A1D9B9-8994-4361-99E0-CCA1520F2178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5779A199-FB78-496E-9D74-39233AE92B55}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{27DBC710-212C-4B60-B927-B9EE36866F81}"/>
+    <workbookView xWindow="6195" yWindow="720" windowWidth="27135" windowHeight="19620" xr2:uid="{27DBC710-212C-4B60-B927-B9EE36866F81}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="198">
   <si>
     <t>Subject</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Belmont S.-G1</t>
   </si>
   <si>
-    <t>True North H.-G2</t>
-  </si>
-  <si>
     <t>Woody Stephens S.-G1</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>Suburban S.-G2</t>
   </si>
   <si>
-    <t>Summertime Oaks-G2</t>
-  </si>
-  <si>
     <t>Matt Winn S.-G3</t>
   </si>
   <si>
@@ -83,9 +77,6 @@
     <t>Bed o' Roses Invitational-G2</t>
   </si>
   <si>
-    <t>Chicago H.-G3</t>
-  </si>
-  <si>
     <t>Ohio Derby-G3</t>
   </si>
   <si>
@@ -98,18 +89,6 @@
     <t>Victory Ride S.-G3</t>
   </si>
   <si>
-    <t>Brooklyn S.-G2</t>
-  </si>
-  <si>
-    <t>John A. Nerud S.-G2</t>
-  </si>
-  <si>
-    <t>Dwyer S.-G3</t>
-  </si>
-  <si>
-    <t>Great Lady M S.-G2</t>
-  </si>
-  <si>
     <t>Prairie Meadows Cornhusker H.-G3</t>
   </si>
   <si>
@@ -122,9 +101,6 @@
     <t>Indiana Derby-G3</t>
   </si>
   <si>
-    <t>Delaware H.-G2</t>
-  </si>
-  <si>
     <t>Sanford S.-G3</t>
   </si>
   <si>
@@ -146,15 +122,9 @@
     <t>Honorable Miss H.-G2</t>
   </si>
   <si>
-    <t>Cougar II H.-G3</t>
-  </si>
-  <si>
     <t>Amsterdam S.-G2</t>
   </si>
   <si>
-    <t>Alfred G. Vanderbilt H.-G1</t>
-  </si>
-  <si>
     <t>Jim Dandy S.-G2</t>
   </si>
   <si>
@@ -167,21 +137,12 @@
     <t>Monmouth Oaks-G3</t>
   </si>
   <si>
-    <t>Longines Test S.-G1</t>
-  </si>
-  <si>
     <t>Whitney H.-G1</t>
   </si>
   <si>
     <t>Clement L. Hirsch S.-G1</t>
   </si>
   <si>
-    <t>West Virginia Derby-G3</t>
-  </si>
-  <si>
-    <t>West Virginia Governor's S.-G3</t>
-  </si>
-  <si>
     <t>Adirondack S.-G3</t>
   </si>
   <si>
@@ -284,9 +245,6 @@
     <t>Chillingworth S.-G3</t>
   </si>
   <si>
-    <t>Awesome Again S.-G1</t>
-  </si>
-  <si>
     <t>Santa Anita Sprint Champ. S.-G2</t>
   </si>
   <si>
@@ -326,9 +284,6 @@
     <t>American Pharoah S.-G1</t>
   </si>
   <si>
-    <t>Chandelier S.-G2</t>
-  </si>
-  <si>
     <t>Claiborne Breed. Fut.-G1</t>
   </si>
   <si>
@@ -368,51 +323,24 @@
     <t>BC CLASSIC-G1</t>
   </si>
   <si>
-    <t>Draft #1 Opens</t>
-  </si>
-  <si>
-    <t>Draft #1 Closes</t>
-  </si>
-  <si>
-    <t>Week #3 Nominations Close (CD)</t>
-  </si>
-  <si>
     <t>Week #3 Nominations Close (TDN)</t>
   </si>
   <si>
-    <t>Week #4 Nominations Close (CD)</t>
-  </si>
-  <si>
     <t>Week #5 Nominations Close (IND)</t>
   </si>
   <si>
     <t>Week #14 Nominations Close (DMR)</t>
   </si>
   <si>
-    <t>Week #5 Nominations Close (BAQ)</t>
-  </si>
-  <si>
     <t>Week #5 Nominations Close (DEL)</t>
   </si>
   <si>
     <t>Week #5 Nominations Close (PRM)</t>
   </si>
   <si>
-    <t>Week #4 Nominations Close (LRC)</t>
-  </si>
-  <si>
-    <t>Draft #2 Opens</t>
-  </si>
-  <si>
-    <t>Draft #2 Closes</t>
-  </si>
-  <si>
     <t>Week #7 Nominations Close (Haskell)</t>
   </si>
   <si>
-    <t>Week #6 Nominations Close (SAR)</t>
-  </si>
-  <si>
     <t>Week #7 Nominations Close (MTH)</t>
   </si>
   <si>
@@ -428,12 +356,6 @@
     <t>Week #8 Nominations Close (SAR)</t>
   </si>
   <si>
-    <t>Draft #3 Opens</t>
-  </si>
-  <si>
-    <t>Draft #3 Closes</t>
-  </si>
-  <si>
     <t>Week #7 Nominations Close (DMR)</t>
   </si>
   <si>
@@ -449,12 +371,6 @@
     <t>Week #9 Nominations Close (DMR)</t>
   </si>
   <si>
-    <t>Week #11 Nominations Close (PRX)</t>
-  </si>
-  <si>
-    <t>Week #10 Nominations Close (SAR)</t>
-  </si>
-  <si>
     <t>Week #10 Nominations Close (DMR)</t>
   </si>
   <si>
@@ -467,12 +383,6 @@
     <t>Week #11 Nominations Close (SAR)</t>
   </si>
   <si>
-    <t>Draft #4 Opens</t>
-  </si>
-  <si>
-    <t>Draft #4 Closes</t>
-  </si>
-  <si>
     <t>Week #12 Nominations Close (SAR)</t>
   </si>
   <si>
@@ -485,12 +395,6 @@
     <t>Week #13 Nominations Close (DMR)</t>
   </si>
   <si>
-    <t>Draft #5 Opens</t>
-  </si>
-  <si>
-    <t>Draft #5 Closes</t>
-  </si>
-  <si>
     <t>Week #15 Nominations Close (CD)</t>
   </si>
   <si>
@@ -521,42 +425,21 @@
     <t>Week #18 Nominations Close (BAQ)</t>
   </si>
   <si>
-    <t>Draft #6 Opens</t>
-  </si>
-  <si>
-    <t>Draft #6 Closes</t>
-  </si>
-  <si>
     <t>Week #18 Nominations Close (SA)</t>
   </si>
   <si>
     <t>Week #20 Nominations Close (KEE)</t>
   </si>
   <si>
-    <t>Industry Note: Pre-Entry Deadline for Breeders’ Cup World Championships at Santa Anita.</t>
-  </si>
-  <si>
     <t>Industry Note: Entry Deadline for Breeders' Cup World Championships</t>
   </si>
   <si>
-    <t>Draft #7 Opens</t>
-  </si>
-  <si>
-    <t>Draft #7 Closes</t>
-  </si>
-  <si>
-    <t>Week #1 Nominations Close (SAR)</t>
-  </si>
-  <si>
     <t>Week #1 Nominations Close (CD)</t>
   </si>
   <si>
     <t>Week #1 Nominations Close (SA)</t>
   </si>
   <si>
-    <t>Week #2 Nominations Close (BAQ)</t>
-  </si>
-  <si>
     <t>Week #2 Nominations Close (MTH)</t>
   </si>
   <si>
@@ -609,15 +492,150 @@
   </si>
   <si>
     <t>Thistledown, 21501 Emery Rd, North Randall, OH 44128</t>
+  </si>
+  <si>
+    <t>Acorn S.-G1</t>
+  </si>
+  <si>
+    <t>True North H.-G3</t>
+  </si>
+  <si>
+    <t>Summertime Oaks-G3</t>
+  </si>
+  <si>
+    <t>Weeks #3-4 Nominations Close (CD)</t>
+  </si>
+  <si>
+    <t>Week #5 Nominations Close (SAR)</t>
+  </si>
+  <si>
+    <t>Chicago H.-G2</t>
+  </si>
+  <si>
+    <t>Week #5 Nominations Close (LRC)</t>
+  </si>
+  <si>
+    <t>Kelly's Landing S.-G3</t>
+  </si>
+  <si>
+    <t>Alfred G. Vanderbilt H.-G2</t>
+  </si>
+  <si>
+    <t>Test S.-G1</t>
+  </si>
+  <si>
+    <t>California Crown S.-G1</t>
+  </si>
+  <si>
+    <t>Delaware H.-G3</t>
+  </si>
+  <si>
+    <t>Oak Leaf S.-G2</t>
+  </si>
+  <si>
+    <t>Industry Note: Pre-Entry Deadline for Breeders’ Cup World Championships.</t>
+  </si>
+  <si>
+    <t>Cougar II H.-G3 (DATE TBD)</t>
+  </si>
+  <si>
+    <t>Great Lady M S.-G2 (DATE TBD)</t>
+  </si>
+  <si>
+    <t>West Virginia Derby-G3 (DATE TBD)</t>
+  </si>
+  <si>
+    <t>RTTBC25 WEEK #1</t>
+  </si>
+  <si>
+    <t>RTTBC25 WEEK #2</t>
+  </si>
+  <si>
+    <t>RTTBC25 WEEK #3</t>
+  </si>
+  <si>
+    <t>RTTBC25 WEEK #4</t>
+  </si>
+  <si>
+    <t>RTTBC25 WEEK #5</t>
+  </si>
+  <si>
+    <t>RTTBC25 WEEK #10</t>
+  </si>
+  <si>
+    <t>RTTBC25 WEEK #6 (No Races)</t>
+  </si>
+  <si>
+    <t>RTTBC25 WEEK #7</t>
+  </si>
+  <si>
+    <t>RTTBC25 WEEK #8</t>
+  </si>
+  <si>
+    <t>RTTBC25 WEEK #9</t>
+  </si>
+  <si>
+    <t>RTTBC25 WEEK #14</t>
+  </si>
+  <si>
+    <t>RTTBC25 WEEK #16</t>
+  </si>
+  <si>
+    <t>RTTBC25 WEEK #11</t>
+  </si>
+  <si>
+    <t>RTTBC25 WEEK #12</t>
+  </si>
+  <si>
+    <t>RTTBC25 WEEK #13</t>
+  </si>
+  <si>
+    <t>RTTBC25 WEEK #15</t>
+  </si>
+  <si>
+    <t>RTTBC25 WEEK #17</t>
+  </si>
+  <si>
+    <t>RTTBC25 WEEK #18</t>
+  </si>
+  <si>
+    <t>RTTBC25 WEEK #19 (No Races)</t>
+  </si>
+  <si>
+    <t>RTTBC25 WEEK #20</t>
+  </si>
+  <si>
+    <t>RTTBC25 CHAMPIONSHIP WEEK</t>
+  </si>
+  <si>
+    <t>RTTBC25 DRAFT #1 (7 Horses, 2 Trainers, 2 Jockeys, 2 Sires)</t>
+  </si>
+  <si>
+    <t>RTTBC25 DRAFT #2 (4 Horses)</t>
+  </si>
+  <si>
+    <t>RTTBC25 DRAFT #3 (4 Horses)</t>
+  </si>
+  <si>
+    <t>RTTBC25 DRAFT #4 (4 Horses)</t>
+  </si>
+  <si>
+    <t>RTTBC25 DRAFT #5 (4 Horses)</t>
+  </si>
+  <si>
+    <t>RTTBC25 DRAFT #6 (4 Horses, 1 Trainer, 1 Jockey, 1 Sire)</t>
+  </si>
+  <si>
+    <t>RTTBC25 DRAFT #7 (4 Horses)</t>
+  </si>
+  <si>
+    <t>RTTBC25 DRAFT #8 (4 Horses)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -649,10 +667,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -986,16 +1004,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284028C9-2345-4A3E-B3AE-70C83AECA38B}">
-  <dimension ref="A1:E170"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B8EEA0-71FF-4095-AD4D-067B28F591B3}">
+  <dimension ref="A1:E177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="81" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="69" bestFit="1" customWidth="1"/>
@@ -1020,13 +1038,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45434</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45434</v>
+        <v>132</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45805</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45805</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -1034,13 +1052,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45437</v>
-      </c>
-      <c r="C3" s="1">
-        <v>45437</v>
+        <v>133</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45806</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45806</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -1048,13 +1066,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45442</v>
-      </c>
-      <c r="C4" s="1">
-        <v>45442</v>
+        <v>134</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45809</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45809</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -1062,13 +1080,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45444</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45444</v>
+        <v>190</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45810</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45814</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -1076,174 +1094,180 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45445</v>
-      </c>
-      <c r="C6" s="1">
-        <v>45445</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45814</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45814</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="1">
-        <v>45446</v>
-      </c>
-      <c r="C7" s="1">
-        <v>45446</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45814</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45814</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="1">
-        <v>45448</v>
-      </c>
-      <c r="C8" s="1">
-        <v>45448</v>
+        <v>152</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45814</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45814</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1">
-        <v>45451</v>
-      </c>
-      <c r="C9" s="1">
-        <v>45451</v>
+        <v>169</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45814</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45816</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1">
-        <v>45451</v>
-      </c>
-      <c r="C10" s="1">
-        <v>45451</v>
+        <v>154</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45815</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45815</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1">
-        <v>45451</v>
-      </c>
-      <c r="C11" s="1">
-        <v>45451</v>
+        <v>5</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45815</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45815</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1">
-        <v>45451</v>
-      </c>
-      <c r="C12" s="1">
-        <v>45451</v>
+        <v>153</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45815</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45815</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1">
-        <v>45451</v>
-      </c>
-      <c r="C13" s="1">
-        <v>45451</v>
+        <v>6</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45815</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45815</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1">
-        <v>45451</v>
-      </c>
-      <c r="C14" s="1">
-        <v>45451</v>
+        <v>7</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45815</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45815</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1">
-        <v>45451</v>
-      </c>
-      <c r="C15" s="1">
-        <v>45451</v>
+        <v>10</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45816</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45816</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>188</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="1">
-        <v>45451</v>
-      </c>
-      <c r="C16" s="1">
-        <v>45451</v>
+        <v>155</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45819</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45819</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -1251,92 +1275,89 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1">
-        <v>45452</v>
-      </c>
-      <c r="C17" s="1">
-        <v>45452</v>
+        <v>95</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45819</v>
+      </c>
+      <c r="C17" s="2">
+        <v>45819</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" s="1">
-        <v>45455</v>
-      </c>
-      <c r="C18" s="1">
-        <v>45455</v>
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45822</v>
+      </c>
+      <c r="C18" s="2">
+        <v>45822</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="1">
-        <v>45455</v>
-      </c>
-      <c r="C19" s="1">
-        <v>45455</v>
+        <v>11</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45822</v>
+      </c>
+      <c r="C19" s="2">
+        <v>45822</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="1">
-        <v>45458</v>
-      </c>
-      <c r="C20" s="1">
-        <v>45458</v>
+        <v>170</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45822</v>
+      </c>
+      <c r="C20" s="2">
+        <v>45822</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="1">
-        <v>45458</v>
-      </c>
-      <c r="C21" s="1">
-        <v>45458</v>
+        <v>97</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45828</v>
+      </c>
+      <c r="C21" s="2">
+        <v>45828</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>116</v>
-      </c>
-      <c r="B22" s="1">
-        <v>45464</v>
-      </c>
-      <c r="C22" s="1">
-        <v>45464</v>
+        <v>96</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45828</v>
+      </c>
+      <c r="C22" s="2">
+        <v>45828</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -1344,61 +1365,61 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" s="1">
-        <v>45464</v>
-      </c>
-      <c r="C23" s="1">
-        <v>45464</v>
+        <v>157</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45829</v>
+      </c>
+      <c r="C23" s="2">
+        <v>45829</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="1">
-        <v>45465</v>
-      </c>
-      <c r="C24" s="1">
-        <v>45465</v>
+        <v>13</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45829</v>
+      </c>
+      <c r="C24" s="2">
+        <v>45829</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="1">
-        <v>45465</v>
-      </c>
-      <c r="C25" s="1">
-        <v>45465</v>
+        <v>171</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45829</v>
+      </c>
+      <c r="C25" s="2">
+        <v>45829</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="1">
-        <v>45465</v>
-      </c>
-      <c r="C26" s="1">
-        <v>45465</v>
+        <v>98</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45829</v>
+      </c>
+      <c r="C26" s="2">
+        <v>45829</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -1406,13 +1427,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27" s="1">
-        <v>45465</v>
-      </c>
-      <c r="C27" s="1">
-        <v>45465</v>
+        <v>99</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45829</v>
+      </c>
+      <c r="C27" s="2">
+        <v>45829</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -1420,13 +1441,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>118</v>
-      </c>
-      <c r="B28" s="1">
-        <v>45465</v>
-      </c>
-      <c r="C28" s="1">
-        <v>45465</v>
+        <v>156</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45829</v>
+      </c>
+      <c r="C28" s="2">
+        <v>45829</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -1434,13 +1455,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B29" s="1">
-        <v>45465</v>
-      </c>
-      <c r="C29" s="1">
-        <v>45465</v>
+        <v>191</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45832</v>
+      </c>
+      <c r="C29" s="2">
+        <v>45836</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -1448,13 +1469,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B30" s="1">
-        <v>45468</v>
-      </c>
-      <c r="C30" s="1">
-        <v>45468</v>
+        <v>158</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45834</v>
+      </c>
+      <c r="C30" s="2">
+        <v>45834</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -1462,13 +1483,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>123</v>
-      </c>
-      <c r="B31" s="1">
-        <v>45471</v>
-      </c>
-      <c r="C31" s="1">
-        <v>45471</v>
+        <v>100</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45835</v>
+      </c>
+      <c r="C31" s="2">
+        <v>45835</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -1476,61 +1497,64 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="1">
-        <v>45472</v>
-      </c>
-      <c r="C32" s="1">
-        <v>45472</v>
+        <v>14</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45836</v>
+      </c>
+      <c r="C32" s="2">
+        <v>45836</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="1">
-        <v>45472</v>
-      </c>
-      <c r="C33" s="1">
-        <v>45472</v>
+        <v>159</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45836</v>
+      </c>
+      <c r="C33" s="2">
+        <v>45836</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>122</v>
-      </c>
-      <c r="B34" s="1">
-        <v>45472</v>
-      </c>
-      <c r="C34" s="1">
-        <v>45472</v>
+        <v>15</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45836</v>
+      </c>
+      <c r="C34" s="2">
+        <v>45836</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>124</v>
-      </c>
-      <c r="B35" s="1">
-        <v>45472</v>
-      </c>
-      <c r="C35" s="1">
-        <v>45472</v>
+        <v>172</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45836</v>
+      </c>
+      <c r="C35" s="2">
+        <v>45836</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
@@ -1538,180 +1562,174 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="1">
-        <v>45477</v>
-      </c>
-      <c r="C36" s="1">
-        <v>45477</v>
+        <v>16</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45841</v>
+      </c>
+      <c r="C36" s="2">
+        <v>45841</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>174</v>
+      <c r="E36" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="1">
-        <v>45478</v>
-      </c>
-      <c r="C37" s="1">
-        <v>45478</v>
+        <v>173</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45841</v>
+      </c>
+      <c r="C37" s="2">
+        <v>45843</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>125</v>
-      </c>
-      <c r="B38" s="1">
-        <v>45478</v>
-      </c>
-      <c r="C38" s="1">
-        <v>45478</v>
+        <v>9</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45842</v>
+      </c>
+      <c r="C38" s="2">
+        <v>45842</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="1">
-        <v>45479</v>
-      </c>
-      <c r="C39" s="1">
-        <v>45479</v>
+        <v>101</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45842</v>
+      </c>
+      <c r="C39" s="2">
+        <v>45842</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="1">
-        <v>45479</v>
-      </c>
-      <c r="C40" s="1">
-        <v>45479</v>
+        <v>19</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45843</v>
+      </c>
+      <c r="C40" s="2">
+        <v>45843</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>174</v>
+      <c r="E40" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="1">
-        <v>45479</v>
-      </c>
-      <c r="C41" s="1">
-        <v>45479</v>
+        <v>20</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45843</v>
+      </c>
+      <c r="C41" s="2">
+        <v>45843</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="1">
-        <v>45479</v>
-      </c>
-      <c r="C42" s="1">
-        <v>45479</v>
+        <v>167</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45843</v>
+      </c>
+      <c r="C42" s="2">
+        <v>45843</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="1">
-        <v>45479</v>
-      </c>
-      <c r="C43" s="1">
-        <v>45479</v>
+        <v>17</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45843</v>
+      </c>
+      <c r="C43" s="2">
+        <v>45843</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="1">
-        <v>45479</v>
-      </c>
-      <c r="C44" s="1">
-        <v>45479</v>
+        <v>21</v>
+      </c>
+      <c r="B44" s="2">
+        <v>45843</v>
+      </c>
+      <c r="C44" s="2">
+        <v>45843</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="1">
-        <v>45479</v>
-      </c>
-      <c r="C45" s="1">
-        <v>45479</v>
+        <v>102</v>
+      </c>
+      <c r="B45" s="2">
+        <v>45843</v>
+      </c>
+      <c r="C45" s="2">
+        <v>45843</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>126</v>
-      </c>
-      <c r="B46" s="1">
-        <v>45479</v>
-      </c>
-      <c r="C46" s="1">
-        <v>45479</v>
+        <v>106</v>
+      </c>
+      <c r="B46" s="2">
+        <v>45848</v>
+      </c>
+      <c r="C46" s="2">
+        <v>45848</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
@@ -1719,47 +1737,41 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" s="1">
-        <v>45480</v>
-      </c>
-      <c r="C47" s="1">
-        <v>45480</v>
+        <v>175</v>
+      </c>
+      <c r="B47" s="2">
+        <v>45850</v>
+      </c>
+      <c r="C47" s="2">
+        <v>45850</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
-      </c>
-      <c r="E47" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="1">
-        <v>45486</v>
-      </c>
-      <c r="C48" s="1">
-        <v>45486</v>
+        <v>103</v>
+      </c>
+      <c r="B48" s="2">
+        <v>45850</v>
+      </c>
+      <c r="C48" s="2">
+        <v>45850</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
-      </c>
-      <c r="E48" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>128</v>
-      </c>
-      <c r="B49" s="1">
-        <v>45486</v>
-      </c>
-      <c r="C49" s="1">
-        <v>45486</v>
+        <v>104</v>
+      </c>
+      <c r="B49" s="2">
+        <v>45850</v>
+      </c>
+      <c r="C49" s="2">
+        <v>45850</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
@@ -1767,13 +1779,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>127</v>
-      </c>
-      <c r="B50" s="1">
-        <v>45486</v>
-      </c>
-      <c r="C50" s="1">
-        <v>45486</v>
+        <v>105</v>
+      </c>
+      <c r="B50" s="2">
+        <v>45850</v>
+      </c>
+      <c r="C50" s="2">
+        <v>45850</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
@@ -1781,13 +1793,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B51" s="1">
-        <v>45486</v>
-      </c>
-      <c r="C51" s="1">
-        <v>45486</v>
+        <v>192</v>
+      </c>
+      <c r="B51" s="2">
+        <v>45853</v>
+      </c>
+      <c r="C51" s="2">
+        <v>45857</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
@@ -1795,13 +1807,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>130</v>
-      </c>
-      <c r="B52" s="1">
-        <v>45489</v>
-      </c>
-      <c r="C52" s="1">
-        <v>45489</v>
+        <v>107</v>
+      </c>
+      <c r="B52" s="2">
+        <v>45855</v>
+      </c>
+      <c r="C52" s="2">
+        <v>45855</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
@@ -1809,27 +1821,30 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>132</v>
-      </c>
-      <c r="B53" s="1">
-        <v>45491</v>
-      </c>
-      <c r="C53" s="1">
-        <v>45491</v>
+        <v>26</v>
+      </c>
+      <c r="B53" s="2">
+        <v>45856</v>
+      </c>
+      <c r="C53" s="2">
+        <v>45856</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>133</v>
-      </c>
-      <c r="B54" s="1">
-        <v>45491</v>
-      </c>
-      <c r="C54" s="1">
-        <v>45491</v>
+        <v>176</v>
+      </c>
+      <c r="B54" s="2">
+        <v>45856</v>
+      </c>
+      <c r="C54" s="2">
+        <v>45862</v>
       </c>
       <c r="D54" t="b">
         <v>1</v>
@@ -1837,95 +1852,98 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>30</v>
-      </c>
-      <c r="B55" s="1">
-        <v>45493</v>
-      </c>
-      <c r="C55" s="1">
-        <v>45493</v>
+        <v>23</v>
+      </c>
+      <c r="B55" s="2">
+        <v>45857</v>
+      </c>
+      <c r="C55" s="2">
+        <v>45857</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>31</v>
-      </c>
-      <c r="B56" s="1">
-        <v>45493</v>
-      </c>
-      <c r="C56" s="1">
-        <v>45493</v>
+        <v>24</v>
+      </c>
+      <c r="B56" s="2">
+        <v>45857</v>
+      </c>
+      <c r="C56" s="2">
+        <v>45857</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>32</v>
-      </c>
-      <c r="B57" s="1">
-        <v>45493</v>
-      </c>
-      <c r="C57" s="1">
-        <v>45493</v>
+        <v>25</v>
+      </c>
+      <c r="B57" s="2">
+        <v>45857</v>
+      </c>
+      <c r="C57" s="2">
+        <v>45857</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>33</v>
-      </c>
-      <c r="B58" s="1">
-        <v>45493</v>
-      </c>
-      <c r="C58" s="1">
-        <v>45493</v>
+        <v>22</v>
+      </c>
+      <c r="B58" s="2">
+        <v>45857</v>
+      </c>
+      <c r="C58" s="2">
+        <v>45857</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>131</v>
-      </c>
-      <c r="B59" s="1">
-        <v>45493</v>
-      </c>
-      <c r="C59" s="1">
-        <v>45493</v>
+        <v>160</v>
+      </c>
+      <c r="B59" s="2">
+        <v>45857</v>
+      </c>
+      <c r="C59" s="2">
+        <v>45857</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>134</v>
-      </c>
-      <c r="B60" s="1">
-        <v>45493</v>
-      </c>
-      <c r="C60" s="1">
-        <v>45493</v>
+        <v>108</v>
+      </c>
+      <c r="B60" s="2">
+        <v>45857</v>
+      </c>
+      <c r="C60" s="2">
+        <v>45857</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
@@ -1933,30 +1951,30 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>34</v>
-      </c>
-      <c r="B61" s="1">
-        <v>45494</v>
-      </c>
-      <c r="C61" s="1">
-        <v>45494</v>
+        <v>27</v>
+      </c>
+      <c r="B61" s="2">
+        <v>45858</v>
+      </c>
+      <c r="C61" s="2">
+        <v>45858</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>135</v>
-      </c>
-      <c r="B62" s="1">
-        <v>45496</v>
-      </c>
-      <c r="C62" s="1">
-        <v>45496</v>
+        <v>109</v>
+      </c>
+      <c r="B62" s="2">
+        <v>45860</v>
+      </c>
+      <c r="C62" s="2">
+        <v>45860</v>
       </c>
       <c r="D62" t="b">
         <v>1</v>
@@ -1964,47 +1982,47 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63" s="1">
-        <v>45497</v>
-      </c>
-      <c r="C63" s="1">
-        <v>45497</v>
+        <v>166</v>
+      </c>
+      <c r="B63" s="2">
+        <v>45862</v>
+      </c>
+      <c r="C63" s="2">
+        <v>45862</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>36</v>
-      </c>
-      <c r="B64" s="1">
-        <v>45498</v>
-      </c>
-      <c r="C64" s="1">
-        <v>45498</v>
+        <v>28</v>
+      </c>
+      <c r="B64" s="2">
+        <v>45863</v>
+      </c>
+      <c r="C64" s="2">
+        <v>45863</v>
       </c>
       <c r="D64" t="b">
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>137</v>
-      </c>
-      <c r="B65" s="1">
-        <v>45498</v>
-      </c>
-      <c r="C65" s="1">
-        <v>45498</v>
+        <v>177</v>
+      </c>
+      <c r="B65" s="2">
+        <v>45863</v>
+      </c>
+      <c r="C65" s="2">
+        <v>45864</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -2012,13 +2030,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>136</v>
-      </c>
-      <c r="B66" s="1">
-        <v>45498</v>
-      </c>
-      <c r="C66" s="1">
-        <v>45498</v>
+        <v>110</v>
+      </c>
+      <c r="B66" s="2">
+        <v>45863</v>
+      </c>
+      <c r="C66" s="2">
+        <v>45863</v>
       </c>
       <c r="D66" t="b">
         <v>1</v>
@@ -2026,115 +2044,109 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>37</v>
-      </c>
-      <c r="B67" s="1">
-        <v>45499</v>
-      </c>
-      <c r="C67" s="1">
-        <v>45499</v>
+        <v>30</v>
+      </c>
+      <c r="B67" s="2">
+        <v>45864</v>
+      </c>
+      <c r="C67" s="2">
+        <v>45864</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>38</v>
-      </c>
-      <c r="B68" s="1">
-        <v>45500</v>
-      </c>
-      <c r="C68" s="1">
-        <v>45500</v>
+        <v>31</v>
+      </c>
+      <c r="B68" s="2">
+        <v>45864</v>
+      </c>
+      <c r="C68" s="2">
+        <v>45864</v>
       </c>
       <c r="D68" t="b">
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>39</v>
-      </c>
-      <c r="B69" s="1">
-        <v>45500</v>
-      </c>
-      <c r="C69" s="1">
-        <v>45500</v>
+        <v>32</v>
+      </c>
+      <c r="B69" s="2">
+        <v>45864</v>
+      </c>
+      <c r="C69" s="2">
+        <v>45864</v>
       </c>
       <c r="D69" t="b">
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>40</v>
-      </c>
-      <c r="B70" s="1">
-        <v>45500</v>
-      </c>
-      <c r="C70" s="1">
-        <v>45500</v>
+        <v>29</v>
+      </c>
+      <c r="B70" s="2">
+        <v>45864</v>
+      </c>
+      <c r="C70" s="2">
+        <v>45864</v>
       </c>
       <c r="D70" t="b">
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>41</v>
-      </c>
-      <c r="B71" s="1">
-        <v>45500</v>
-      </c>
-      <c r="C71" s="1">
-        <v>45500</v>
+        <v>193</v>
+      </c>
+      <c r="B71" s="2">
+        <v>45867</v>
+      </c>
+      <c r="C71" s="2">
+        <v>45871</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
-      </c>
-      <c r="E71" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>42</v>
-      </c>
-      <c r="B72" s="1">
-        <v>45500</v>
-      </c>
-      <c r="C72" s="1">
-        <v>45500</v>
+        <v>111</v>
+      </c>
+      <c r="B72" s="2">
+        <v>45869</v>
+      </c>
+      <c r="C72" s="2">
+        <v>45869</v>
       </c>
       <c r="D72" t="b">
         <v>1</v>
-      </c>
-      <c r="E72" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>138</v>
-      </c>
-      <c r="B73" s="1">
-        <v>45500</v>
-      </c>
-      <c r="C73" s="1">
-        <v>45500</v>
+        <v>113</v>
+      </c>
+      <c r="B73" s="2">
+        <v>45870</v>
+      </c>
+      <c r="C73" s="2">
+        <v>45870</v>
       </c>
       <c r="D73" t="b">
         <v>1</v>
@@ -2142,13 +2154,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>139</v>
-      </c>
-      <c r="B74" s="1">
-        <v>45505</v>
-      </c>
-      <c r="C74" s="1">
-        <v>45505</v>
+        <v>112</v>
+      </c>
+      <c r="B74" s="2">
+        <v>45870</v>
+      </c>
+      <c r="C74" s="2">
+        <v>45870</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
@@ -2156,92 +2168,95 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>140</v>
-      </c>
-      <c r="B75" s="1">
-        <v>45506</v>
-      </c>
-      <c r="C75" s="1">
-        <v>45506</v>
+        <v>34</v>
+      </c>
+      <c r="B75" s="2">
+        <v>45871</v>
+      </c>
+      <c r="C75" s="2">
+        <v>45871</v>
       </c>
       <c r="D75" t="b">
         <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>141</v>
-      </c>
-      <c r="B76" s="1">
-        <v>45506</v>
-      </c>
-      <c r="C76" s="1">
-        <v>45506</v>
+        <v>36</v>
+      </c>
+      <c r="B76" s="2">
+        <v>45871</v>
+      </c>
+      <c r="C76" s="2">
+        <v>45871</v>
       </c>
       <c r="D76" t="b">
         <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>43</v>
-      </c>
-      <c r="B77" s="1">
-        <v>45507</v>
-      </c>
-      <c r="C77" s="1">
-        <v>45507</v>
+        <v>161</v>
+      </c>
+      <c r="B77" s="2">
+        <v>45871</v>
+      </c>
+      <c r="C77" s="2">
+        <v>45871</v>
       </c>
       <c r="D77" t="b">
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>44</v>
-      </c>
-      <c r="B78" s="1">
-        <v>45507</v>
-      </c>
-      <c r="C78" s="1">
-        <v>45507</v>
+        <v>33</v>
+      </c>
+      <c r="B78" s="2">
+        <v>45871</v>
+      </c>
+      <c r="C78" s="2">
+        <v>45871</v>
       </c>
       <c r="D78" t="b">
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>45</v>
-      </c>
-      <c r="B79" s="1">
-        <v>45507</v>
-      </c>
-      <c r="C79" s="1">
-        <v>45507</v>
+        <v>178</v>
+      </c>
+      <c r="B79" s="2">
+        <v>45871</v>
+      </c>
+      <c r="C79" s="2">
+        <v>45872</v>
       </c>
       <c r="D79" t="b">
         <v>1</v>
-      </c>
-      <c r="E79" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>142</v>
-      </c>
-      <c r="B80" s="1">
-        <v>45507</v>
-      </c>
-      <c r="C80" s="1">
-        <v>45507</v>
+        <v>114</v>
+      </c>
+      <c r="B80" s="2">
+        <v>45871</v>
+      </c>
+      <c r="C80" s="2">
+        <v>45871</v>
       </c>
       <c r="D80" t="b">
         <v>1</v>
@@ -2249,64 +2264,64 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>46</v>
-      </c>
-      <c r="B81" s="1">
-        <v>45508</v>
-      </c>
-      <c r="C81" s="1">
-        <v>45508</v>
+        <v>168</v>
+      </c>
+      <c r="B81" s="2">
+        <v>45872</v>
+      </c>
+      <c r="C81" s="2">
+        <v>45872</v>
       </c>
       <c r="D81" t="b">
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>47</v>
-      </c>
-      <c r="B82" s="1">
-        <v>45508</v>
-      </c>
-      <c r="C82" s="1">
-        <v>45508</v>
+        <v>35</v>
+      </c>
+      <c r="B82" s="2">
+        <v>45872</v>
+      </c>
+      <c r="C82" s="2">
+        <v>45872</v>
       </c>
       <c r="D82" t="b">
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>48</v>
-      </c>
-      <c r="B83" s="1">
-        <v>45508</v>
-      </c>
-      <c r="C83" s="1">
-        <v>45508</v>
+        <v>38</v>
+      </c>
+      <c r="B83" s="2">
+        <v>45878</v>
+      </c>
+      <c r="C83" s="2">
+        <v>45878</v>
       </c>
       <c r="D83" t="b">
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>143</v>
-      </c>
-      <c r="B84" s="1">
-        <v>45510</v>
-      </c>
-      <c r="C84" s="1">
-        <v>45510</v>
+        <v>174</v>
+      </c>
+      <c r="B84" s="2">
+        <v>45878</v>
+      </c>
+      <c r="C84" s="2">
+        <v>45879</v>
       </c>
       <c r="D84" t="b">
         <v>1</v>
@@ -2314,47 +2329,44 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>49</v>
-      </c>
-      <c r="B85" s="1">
-        <v>45514</v>
-      </c>
-      <c r="C85" s="1">
-        <v>45514</v>
+        <v>115</v>
+      </c>
+      <c r="B85" s="2">
+        <v>45878</v>
+      </c>
+      <c r="C85" s="2">
+        <v>45878</v>
       </c>
       <c r="D85" t="b">
         <v>1</v>
-      </c>
-      <c r="E85" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>50</v>
-      </c>
-      <c r="B86" s="1">
-        <v>45514</v>
-      </c>
-      <c r="C86" s="1">
-        <v>45514</v>
+        <v>37</v>
+      </c>
+      <c r="B86" s="2">
+        <v>45879</v>
+      </c>
+      <c r="C86" s="2">
+        <v>45879</v>
       </c>
       <c r="D86" t="b">
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>144</v>
-      </c>
-      <c r="B87" s="1">
-        <v>45514</v>
-      </c>
-      <c r="C87" s="1">
-        <v>45514</v>
+        <v>116</v>
+      </c>
+      <c r="B87" s="2">
+        <v>45883</v>
+      </c>
+      <c r="C87" s="2">
+        <v>45883</v>
       </c>
       <c r="D87" t="b">
         <v>1</v>
@@ -2362,44 +2374,47 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88" s="2">
+        <v>45885</v>
+      </c>
+      <c r="C88" s="2">
+        <v>45885</v>
+      </c>
+      <c r="D88" t="b">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
         <v>145</v>
-      </c>
-      <c r="B88" s="1">
-        <v>45514</v>
-      </c>
-      <c r="C88" s="1">
-        <v>45514</v>
-      </c>
-      <c r="D88" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>51</v>
-      </c>
-      <c r="B89" s="1">
-        <v>45515</v>
-      </c>
-      <c r="C89" s="1">
-        <v>45515</v>
+        <v>39</v>
+      </c>
+      <c r="B89" s="2">
+        <v>45885</v>
+      </c>
+      <c r="C89" s="2">
+        <v>45885</v>
       </c>
       <c r="D89" t="b">
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>146</v>
-      </c>
-      <c r="B90" s="1">
-        <v>45519</v>
-      </c>
-      <c r="C90" s="1">
-        <v>45519</v>
+        <v>181</v>
+      </c>
+      <c r="B90" s="2">
+        <v>45885</v>
+      </c>
+      <c r="C90" s="2">
+        <v>45885</v>
       </c>
       <c r="D90" t="b">
         <v>1</v>
@@ -2407,47 +2422,41 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>52</v>
-      </c>
-      <c r="B91" s="1">
-        <v>45521</v>
-      </c>
-      <c r="C91" s="1">
-        <v>45521</v>
+        <v>117</v>
+      </c>
+      <c r="B91" s="2">
+        <v>45885</v>
+      </c>
+      <c r="C91" s="2">
+        <v>45885</v>
       </c>
       <c r="D91" t="b">
         <v>1</v>
-      </c>
-      <c r="E91" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>53</v>
-      </c>
-      <c r="B92" s="1">
-        <v>45521</v>
-      </c>
-      <c r="C92" s="1">
-        <v>45521</v>
+        <v>194</v>
+      </c>
+      <c r="B92" s="2">
+        <v>45888</v>
+      </c>
+      <c r="C92" s="2">
+        <v>45891</v>
       </c>
       <c r="D92" t="b">
         <v>1</v>
-      </c>
-      <c r="E92" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>147</v>
-      </c>
-      <c r="B93" s="1">
-        <v>45521</v>
-      </c>
-      <c r="C93" s="1">
-        <v>45521</v>
+        <v>118</v>
+      </c>
+      <c r="B93" s="2">
+        <v>45890</v>
+      </c>
+      <c r="C93" s="2">
+        <v>45890</v>
       </c>
       <c r="D93" t="b">
         <v>1</v>
@@ -2455,180 +2464,180 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>148</v>
-      </c>
-      <c r="B94" s="1">
-        <v>45526</v>
-      </c>
-      <c r="C94" s="1">
-        <v>45526</v>
+        <v>41</v>
+      </c>
+      <c r="B94" s="2">
+        <v>45891</v>
+      </c>
+      <c r="C94" s="2">
+        <v>45891</v>
       </c>
       <c r="D94" t="b">
         <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>54</v>
-      </c>
-      <c r="B95" s="1">
-        <v>45527</v>
-      </c>
-      <c r="C95" s="1">
-        <v>45527</v>
+        <v>42</v>
+      </c>
+      <c r="B95" s="2">
+        <v>45891</v>
+      </c>
+      <c r="C95" s="2">
+        <v>45891</v>
       </c>
       <c r="D95" t="b">
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>55</v>
-      </c>
-      <c r="B96" s="1">
-        <v>45527</v>
-      </c>
-      <c r="C96" s="1">
-        <v>45527</v>
+        <v>182</v>
+      </c>
+      <c r="B96" s="2">
+        <v>45891</v>
+      </c>
+      <c r="C96" s="2">
+        <v>45893</v>
       </c>
       <c r="D96" t="b">
         <v>1</v>
-      </c>
-      <c r="E96" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>56</v>
-      </c>
-      <c r="B97" s="1">
-        <v>45527</v>
-      </c>
-      <c r="C97" s="1">
-        <v>45527</v>
+        <v>48</v>
+      </c>
+      <c r="B97" s="2">
+        <v>45892</v>
+      </c>
+      <c r="C97" s="2">
+        <v>45892</v>
       </c>
       <c r="D97" t="b">
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>57</v>
-      </c>
-      <c r="B98" s="1">
-        <v>45528</v>
-      </c>
-      <c r="C98" s="1">
-        <v>45528</v>
+        <v>43</v>
+      </c>
+      <c r="B98" s="2">
+        <v>45892</v>
+      </c>
+      <c r="C98" s="2">
+        <v>45892</v>
       </c>
       <c r="D98" t="b">
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>58</v>
-      </c>
-      <c r="B99" s="1">
-        <v>45528</v>
-      </c>
-      <c r="C99" s="1">
-        <v>45528</v>
+        <v>44</v>
+      </c>
+      <c r="B99" s="2">
+        <v>45892</v>
+      </c>
+      <c r="C99" s="2">
+        <v>45892</v>
       </c>
       <c r="D99" t="b">
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>59</v>
-      </c>
-      <c r="B100" s="1">
-        <v>45528</v>
-      </c>
-      <c r="C100" s="1">
-        <v>45528</v>
+        <v>45</v>
+      </c>
+      <c r="B100" s="2">
+        <v>45892</v>
+      </c>
+      <c r="C100" s="2">
+        <v>45892</v>
       </c>
       <c r="D100" t="b">
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>60</v>
-      </c>
-      <c r="B101" s="1">
-        <v>45528</v>
-      </c>
-      <c r="C101" s="1">
-        <v>45528</v>
+        <v>46</v>
+      </c>
+      <c r="B101" s="2">
+        <v>45892</v>
+      </c>
+      <c r="C101" s="2">
+        <v>45892</v>
       </c>
       <c r="D101" t="b">
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>61</v>
-      </c>
-      <c r="B102" s="1">
-        <v>45528</v>
-      </c>
-      <c r="C102" s="1">
-        <v>45528</v>
+        <v>47</v>
+      </c>
+      <c r="B102" s="2">
+        <v>45892</v>
+      </c>
+      <c r="C102" s="2">
+        <v>45892</v>
       </c>
       <c r="D102" t="b">
         <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>62</v>
-      </c>
-      <c r="B103" s="1">
-        <v>45529</v>
-      </c>
-      <c r="C103" s="1">
-        <v>45529</v>
+        <v>49</v>
+      </c>
+      <c r="B103" s="2">
+        <v>45893</v>
+      </c>
+      <c r="C103" s="2">
+        <v>45893</v>
       </c>
       <c r="D103" t="b">
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>149</v>
-      </c>
-      <c r="B104" s="1">
-        <v>45531</v>
-      </c>
-      <c r="C104" s="1">
-        <v>45531</v>
+        <v>195</v>
+      </c>
+      <c r="B104" s="2">
+        <v>45895</v>
+      </c>
+      <c r="C104" s="2">
+        <v>45899</v>
       </c>
       <c r="D104" t="b">
         <v>1</v>
@@ -2636,13 +2645,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>151</v>
-      </c>
-      <c r="B105" s="1">
-        <v>45532</v>
-      </c>
-      <c r="C105" s="1">
-        <v>45532</v>
+        <v>119</v>
+      </c>
+      <c r="B105" s="2">
+        <v>45896</v>
+      </c>
+      <c r="C105" s="2">
+        <v>45896</v>
       </c>
       <c r="D105" t="b">
         <v>1</v>
@@ -2650,81 +2659,81 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>63</v>
-      </c>
-      <c r="B106" s="1">
-        <v>45535</v>
-      </c>
-      <c r="C106" s="1">
-        <v>45535</v>
+        <v>50</v>
+      </c>
+      <c r="B106" s="2">
+        <v>45899</v>
+      </c>
+      <c r="C106" s="2">
+        <v>45899</v>
       </c>
       <c r="D106" t="b">
         <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>64</v>
-      </c>
-      <c r="B107" s="1">
-        <v>45535</v>
-      </c>
-      <c r="C107" s="1">
-        <v>45535</v>
+        <v>51</v>
+      </c>
+      <c r="B107" s="2">
+        <v>45899</v>
+      </c>
+      <c r="C107" s="2">
+        <v>45899</v>
       </c>
       <c r="D107" t="b">
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>65</v>
-      </c>
-      <c r="B108" s="1">
-        <v>45535</v>
-      </c>
-      <c r="C108" s="1">
-        <v>45535</v>
+        <v>52</v>
+      </c>
+      <c r="B108" s="2">
+        <v>45899</v>
+      </c>
+      <c r="C108" s="2">
+        <v>45899</v>
       </c>
       <c r="D108" t="b">
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>66</v>
-      </c>
-      <c r="B109" s="1">
-        <v>45535</v>
-      </c>
-      <c r="C109" s="1">
-        <v>45535</v>
+        <v>53</v>
+      </c>
+      <c r="B109" s="2">
+        <v>45899</v>
+      </c>
+      <c r="C109" s="2">
+        <v>45899</v>
       </c>
       <c r="D109" t="b">
         <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>150</v>
-      </c>
-      <c r="B110" s="1">
-        <v>45535</v>
-      </c>
-      <c r="C110" s="1">
-        <v>45535</v>
+        <v>183</v>
+      </c>
+      <c r="B110" s="2">
+        <v>45899</v>
+      </c>
+      <c r="C110" s="2">
+        <v>45901</v>
       </c>
       <c r="D110" t="b">
         <v>1</v>
@@ -2732,61 +2741,61 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>67</v>
-      </c>
-      <c r="B111" s="1">
-        <v>45536</v>
-      </c>
-      <c r="C111" s="1">
-        <v>45536</v>
+        <v>54</v>
+      </c>
+      <c r="B111" s="2">
+        <v>45900</v>
+      </c>
+      <c r="C111" s="2">
+        <v>45900</v>
       </c>
       <c r="D111" t="b">
         <v>1</v>
       </c>
       <c r="E111" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>68</v>
-      </c>
-      <c r="B112" s="1">
-        <v>45537</v>
-      </c>
-      <c r="C112" s="1">
-        <v>45537</v>
+        <v>122</v>
+      </c>
+      <c r="B112" s="2">
+        <v>45900</v>
+      </c>
+      <c r="C112" s="2">
+        <v>45900</v>
       </c>
       <c r="D112" t="b">
         <v>1</v>
-      </c>
-      <c r="E112" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>152</v>
-      </c>
-      <c r="B113" s="1">
-        <v>45539</v>
-      </c>
-      <c r="C113" s="1">
-        <v>45539</v>
+        <v>55</v>
+      </c>
+      <c r="B113" s="2">
+        <v>45901</v>
+      </c>
+      <c r="C113" s="2">
+        <v>45901</v>
       </c>
       <c r="D113" t="b">
         <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>153</v>
-      </c>
-      <c r="B114" s="1">
-        <v>45539</v>
-      </c>
-      <c r="C114" s="1">
-        <v>45539</v>
+        <v>121</v>
+      </c>
+      <c r="B114" s="2">
+        <v>45903</v>
+      </c>
+      <c r="C114" s="2">
+        <v>45903</v>
       </c>
       <c r="D114" t="b">
         <v>1</v>
@@ -2794,140 +2803,140 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>69</v>
-      </c>
-      <c r="B115" s="1">
-        <v>45542</v>
-      </c>
-      <c r="C115" s="1">
-        <v>45542</v>
+        <v>120</v>
+      </c>
+      <c r="B115" s="2">
+        <v>45903</v>
+      </c>
+      <c r="C115" s="2">
+        <v>45903</v>
       </c>
       <c r="D115" t="b">
         <v>1</v>
-      </c>
-      <c r="E115" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>154</v>
-      </c>
-      <c r="B116" s="1">
-        <v>45542</v>
-      </c>
-      <c r="C116" s="1">
-        <v>45542</v>
+        <v>56</v>
+      </c>
+      <c r="B116" s="2">
+        <v>45906</v>
+      </c>
+      <c r="C116" s="2">
+        <v>45906</v>
       </c>
       <c r="D116" t="b">
         <v>1</v>
+      </c>
+      <c r="E116" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>70</v>
-      </c>
-      <c r="B117" s="1">
-        <v>45543</v>
-      </c>
-      <c r="C117" s="1">
-        <v>45543</v>
+        <v>179</v>
+      </c>
+      <c r="B117" s="2">
+        <v>45906</v>
+      </c>
+      <c r="C117" s="2">
+        <v>45907</v>
       </c>
       <c r="D117" t="b">
         <v>1</v>
-      </c>
-      <c r="E117" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>155</v>
-      </c>
-      <c r="B118" s="1">
-        <v>45548</v>
-      </c>
-      <c r="C118" s="1">
-        <v>45548</v>
+        <v>57</v>
+      </c>
+      <c r="B118" s="2">
+        <v>45907</v>
+      </c>
+      <c r="C118" s="2">
+        <v>45907</v>
       </c>
       <c r="D118" t="b">
         <v>1</v>
+      </c>
+      <c r="E118" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>71</v>
-      </c>
-      <c r="B119" s="1">
-        <v>45549</v>
-      </c>
-      <c r="C119" s="1">
-        <v>45549</v>
+        <v>123</v>
+      </c>
+      <c r="B119" s="2">
+        <v>45912</v>
+      </c>
+      <c r="C119" s="2">
+        <v>45912</v>
       </c>
       <c r="D119" t="b">
         <v>1</v>
-      </c>
-      <c r="E119" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>72</v>
-      </c>
-      <c r="B120" s="1">
-        <v>45549</v>
-      </c>
-      <c r="C120" s="1">
-        <v>45549</v>
+        <v>58</v>
+      </c>
+      <c r="B120" s="2">
+        <v>45913</v>
+      </c>
+      <c r="C120" s="2">
+        <v>45913</v>
       </c>
       <c r="D120" t="b">
         <v>1</v>
       </c>
       <c r="E120" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>73</v>
-      </c>
-      <c r="B121" s="1">
-        <v>45549</v>
-      </c>
-      <c r="C121" s="1">
-        <v>45549</v>
+        <v>59</v>
+      </c>
+      <c r="B121" s="2">
+        <v>45913</v>
+      </c>
+      <c r="C121" s="2">
+        <v>45913</v>
       </c>
       <c r="D121" t="b">
         <v>1</v>
       </c>
       <c r="E121" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>156</v>
-      </c>
-      <c r="B122" s="1">
-        <v>45549</v>
-      </c>
-      <c r="C122" s="1">
-        <v>45549</v>
+        <v>60</v>
+      </c>
+      <c r="B122" s="2">
+        <v>45913</v>
+      </c>
+      <c r="C122" s="2">
+        <v>45913</v>
       </c>
       <c r="D122" t="b">
         <v>1</v>
+      </c>
+      <c r="E122" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>157</v>
-      </c>
-      <c r="B123" s="1">
-        <v>45549</v>
-      </c>
-      <c r="C123" s="1">
-        <v>45549</v>
+        <v>184</v>
+      </c>
+      <c r="B123" s="2">
+        <v>45913</v>
+      </c>
+      <c r="C123" s="2">
+        <v>45913</v>
       </c>
       <c r="D123" t="b">
         <v>1</v>
@@ -2935,27 +2944,28 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>158</v>
-      </c>
-      <c r="B124" s="1">
-        <v>45549</v>
-      </c>
-      <c r="C124" s="1">
-        <v>45549</v>
+        <v>124</v>
+      </c>
+      <c r="B124" s="2">
+        <v>45913</v>
+      </c>
+      <c r="C124" s="2">
+        <v>45913</v>
       </c>
       <c r="D124" t="b">
         <v>1</v>
       </c>
+      <c r="E124" s="1"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>159</v>
-      </c>
-      <c r="B125" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C125" s="1">
-        <v>45553</v>
+        <v>125</v>
+      </c>
+      <c r="B125" s="2">
+        <v>45913</v>
+      </c>
+      <c r="C125" s="2">
+        <v>45913</v>
       </c>
       <c r="D125" t="b">
         <v>1</v>
@@ -2963,146 +2973,143 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>74</v>
-      </c>
-      <c r="B126" s="1">
-        <v>45556</v>
-      </c>
-      <c r="C126" s="1">
-        <v>45556</v>
+        <v>126</v>
+      </c>
+      <c r="B126" s="2">
+        <v>45913</v>
+      </c>
+      <c r="C126" s="2">
+        <v>45913</v>
       </c>
       <c r="D126" t="b">
         <v>1</v>
-      </c>
-      <c r="E126" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>75</v>
-      </c>
-      <c r="B127" s="1">
-        <v>45556</v>
-      </c>
-      <c r="C127" s="1">
-        <v>45556</v>
+        <v>127</v>
+      </c>
+      <c r="B127" s="2">
+        <v>45917</v>
+      </c>
+      <c r="C127" s="2">
+        <v>45917</v>
       </c>
       <c r="D127" t="b">
         <v>1</v>
-      </c>
-      <c r="E127" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>76</v>
-      </c>
-      <c r="B128" s="1">
-        <v>45556</v>
-      </c>
-      <c r="C128" s="1">
-        <v>45556</v>
+        <v>66</v>
+      </c>
+      <c r="B128" s="2">
+        <v>45920</v>
+      </c>
+      <c r="C128" s="2">
+        <v>45920</v>
       </c>
       <c r="D128" t="b">
         <v>1</v>
       </c>
       <c r="E128" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>77</v>
-      </c>
-      <c r="B129" s="1">
-        <v>45556</v>
-      </c>
-      <c r="C129" s="1">
-        <v>45556</v>
+        <v>65</v>
+      </c>
+      <c r="B129" s="2">
+        <v>45920</v>
+      </c>
+      <c r="C129" s="2">
+        <v>45920</v>
       </c>
       <c r="D129" t="b">
         <v>1</v>
       </c>
       <c r="E129" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>78</v>
-      </c>
-      <c r="B130" s="1">
-        <v>45556</v>
-      </c>
-      <c r="C130" s="1">
-        <v>45556</v>
+        <v>61</v>
+      </c>
+      <c r="B130" s="2">
+        <v>45920</v>
+      </c>
+      <c r="C130" s="2">
+        <v>45920</v>
       </c>
       <c r="D130" t="b">
         <v>1</v>
       </c>
       <c r="E130" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>79</v>
-      </c>
-      <c r="B131" s="1">
-        <v>45556</v>
-      </c>
-      <c r="C131" s="1">
-        <v>45556</v>
+        <v>62</v>
+      </c>
+      <c r="B131" s="2">
+        <v>45920</v>
+      </c>
+      <c r="C131" s="2">
+        <v>45920</v>
       </c>
       <c r="D131" t="b">
         <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>160</v>
-      </c>
-      <c r="B132" s="1">
-        <v>45556</v>
-      </c>
-      <c r="C132" s="1">
-        <v>45556</v>
+        <v>63</v>
+      </c>
+      <c r="B132" s="2">
+        <v>45920</v>
+      </c>
+      <c r="C132" s="2">
+        <v>45920</v>
       </c>
       <c r="D132" t="b">
         <v>1</v>
+      </c>
+      <c r="E132" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>80</v>
-      </c>
-      <c r="B133" s="1">
-        <v>45557</v>
-      </c>
-      <c r="C133" s="1">
-        <v>45557</v>
+        <v>64</v>
+      </c>
+      <c r="B133" s="2">
+        <v>45920</v>
+      </c>
+      <c r="C133" s="2">
+        <v>45920</v>
       </c>
       <c r="D133" t="b">
         <v>1</v>
       </c>
       <c r="E133" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>161</v>
-      </c>
-      <c r="B134" s="1">
-        <v>45559</v>
-      </c>
-      <c r="C134" s="1">
-        <v>45559</v>
+        <v>180</v>
+      </c>
+      <c r="B134" s="2">
+        <v>45920</v>
+      </c>
+      <c r="C134" s="2">
+        <v>45920</v>
       </c>
       <c r="D134" t="b">
         <v>1</v>
@@ -3110,44 +3117,42 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>163</v>
-      </c>
-      <c r="B135" s="1">
-        <v>45561</v>
-      </c>
-      <c r="C135" s="1">
-        <v>45561</v>
+        <v>128</v>
+      </c>
+      <c r="B135" s="2">
+        <v>45920</v>
+      </c>
+      <c r="C135" s="2">
+        <v>45920</v>
       </c>
       <c r="D135" t="b">
         <v>1</v>
       </c>
+      <c r="E135" s="1"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>81</v>
-      </c>
-      <c r="B136" s="1">
-        <v>45562</v>
-      </c>
-      <c r="C136" s="1">
-        <v>45562</v>
+        <v>129</v>
+      </c>
+      <c r="B136" s="2">
+        <v>45920</v>
+      </c>
+      <c r="C136" s="2">
+        <v>45920</v>
       </c>
       <c r="D136" t="b">
         <v>1</v>
-      </c>
-      <c r="E136" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>162</v>
-      </c>
-      <c r="B137" s="1">
-        <v>45562</v>
-      </c>
-      <c r="C137" s="1">
-        <v>45562</v>
+        <v>196</v>
+      </c>
+      <c r="B137" s="2">
+        <v>45923</v>
+      </c>
+      <c r="C137" s="2">
+        <v>45927</v>
       </c>
       <c r="D137" t="b">
         <v>1</v>
@@ -3155,426 +3160,429 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>82</v>
-      </c>
-      <c r="B138" s="1">
-        <v>45563</v>
-      </c>
-      <c r="C138" s="1">
-        <v>45563</v>
+        <v>72</v>
+      </c>
+      <c r="B138" s="2">
+        <v>45927</v>
+      </c>
+      <c r="C138" s="2">
+        <v>45927</v>
       </c>
       <c r="D138" t="b">
         <v>1</v>
       </c>
-      <c r="E138" t="s">
-        <v>188</v>
+      <c r="E138" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>83</v>
-      </c>
-      <c r="B139" s="1">
-        <v>45563</v>
-      </c>
-      <c r="C139" s="1">
-        <v>45563</v>
+        <v>74</v>
+      </c>
+      <c r="B139" s="2">
+        <v>45927</v>
+      </c>
+      <c r="C139" s="2">
+        <v>45927</v>
       </c>
       <c r="D139" t="b">
         <v>1</v>
       </c>
-      <c r="E139" t="s">
-        <v>188</v>
+      <c r="E139" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>84</v>
-      </c>
-      <c r="B140" s="1">
-        <v>45563</v>
-      </c>
-      <c r="C140" s="1">
-        <v>45563</v>
+        <v>70</v>
+      </c>
+      <c r="B140" s="2">
+        <v>45927</v>
+      </c>
+      <c r="C140" s="2">
+        <v>45927</v>
       </c>
       <c r="D140" t="b">
         <v>1</v>
       </c>
       <c r="E140" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>85</v>
-      </c>
-      <c r="B141" s="1">
-        <v>45563</v>
-      </c>
-      <c r="C141" s="1">
-        <v>45563</v>
+        <v>71</v>
+      </c>
+      <c r="B141" s="2">
+        <v>45927</v>
+      </c>
+      <c r="C141" s="2">
+        <v>45927</v>
       </c>
       <c r="D141" t="b">
         <v>1</v>
       </c>
       <c r="E141" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>86</v>
-      </c>
-      <c r="B142" s="1">
-        <v>45563</v>
-      </c>
-      <c r="C142" s="1">
-        <v>45563</v>
+        <v>162</v>
+      </c>
+      <c r="B142" s="2">
+        <v>45927</v>
+      </c>
+      <c r="C142" s="2">
+        <v>45927</v>
       </c>
       <c r="D142" t="b">
         <v>1</v>
       </c>
-      <c r="E142" s="2" t="s">
-        <v>174</v>
+      <c r="E142" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>87</v>
-      </c>
-      <c r="B143" s="1">
-        <v>45563</v>
-      </c>
-      <c r="C143" s="1">
-        <v>45563</v>
+        <v>185</v>
+      </c>
+      <c r="B143" s="2">
+        <v>45927</v>
+      </c>
+      <c r="C143" s="2">
+        <v>45928</v>
       </c>
       <c r="D143" t="b">
         <v>1</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>88</v>
-      </c>
-      <c r="B144" s="1">
-        <v>45563</v>
-      </c>
-      <c r="C144" s="1">
-        <v>45563</v>
+        <v>73</v>
+      </c>
+      <c r="B144" s="2">
+        <v>45928</v>
+      </c>
+      <c r="C144" s="2">
+        <v>45928</v>
       </c>
       <c r="D144" t="b">
         <v>1</v>
       </c>
-      <c r="E144" s="2" t="s">
-        <v>174</v>
+      <c r="E144" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>89</v>
-      </c>
-      <c r="B145" s="1">
-        <v>45564</v>
-      </c>
-      <c r="C145" s="1">
-        <v>45564</v>
+        <v>163</v>
+      </c>
+      <c r="B145" s="2">
+        <v>45928</v>
+      </c>
+      <c r="C145" s="2">
+        <v>45928</v>
       </c>
       <c r="D145" t="b">
         <v>1</v>
       </c>
       <c r="E145" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>90</v>
-      </c>
-      <c r="B146" s="1">
-        <v>45564</v>
-      </c>
-      <c r="C146" s="1">
-        <v>45564</v>
+        <v>67</v>
+      </c>
+      <c r="B146" s="2">
+        <v>45928</v>
+      </c>
+      <c r="C146" s="2">
+        <v>45928</v>
       </c>
       <c r="D146" t="b">
         <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>164</v>
-      </c>
-      <c r="B147" s="1">
-        <v>45567</v>
-      </c>
-      <c r="C147" s="1">
-        <v>45567</v>
+        <v>75</v>
+      </c>
+      <c r="B147" s="2">
+        <v>45928</v>
+      </c>
+      <c r="C147" s="2">
+        <v>45928</v>
       </c>
       <c r="D147" t="b">
         <v>1</v>
+      </c>
+      <c r="E147" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>91</v>
-      </c>
-      <c r="B148" s="1">
-        <v>45569</v>
-      </c>
-      <c r="C148" s="1">
-        <v>45569</v>
+        <v>69</v>
+      </c>
+      <c r="B148" s="2">
+        <v>45928</v>
+      </c>
+      <c r="C148" s="2">
+        <v>45928</v>
       </c>
       <c r="D148" t="b">
         <v>1</v>
       </c>
       <c r="E148" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>92</v>
-      </c>
-      <c r="B149" s="1">
-        <v>45569</v>
-      </c>
-      <c r="C149" s="1">
-        <v>45569</v>
+        <v>130</v>
+      </c>
+      <c r="B149" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C149" s="2">
+        <v>45931</v>
       </c>
       <c r="D149" t="b">
         <v>1</v>
-      </c>
-      <c r="E149" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>93</v>
-      </c>
-      <c r="B150" s="1">
-        <v>45570</v>
-      </c>
-      <c r="C150" s="1">
-        <v>45570</v>
+        <v>77</v>
+      </c>
+      <c r="B150" s="2">
+        <v>45933</v>
+      </c>
+      <c r="C150" s="2">
+        <v>45933</v>
       </c>
       <c r="D150" t="b">
         <v>1</v>
       </c>
-      <c r="E150" s="2" t="s">
-        <v>174</v>
+      <c r="E150" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>94</v>
-      </c>
-      <c r="B151" s="1">
-        <v>45570</v>
-      </c>
-      <c r="C151" s="1">
-        <v>45570</v>
+        <v>78</v>
+      </c>
+      <c r="B151" s="2">
+        <v>45933</v>
+      </c>
+      <c r="C151" s="2">
+        <v>45933</v>
       </c>
       <c r="D151" t="b">
         <v>1</v>
       </c>
-      <c r="E151" s="2" t="s">
-        <v>174</v>
+      <c r="E151" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>95</v>
-      </c>
-      <c r="B152" s="1">
-        <v>45570</v>
-      </c>
-      <c r="C152" s="1">
-        <v>45570</v>
+        <v>186</v>
+      </c>
+      <c r="B152" s="2">
+        <v>45933</v>
+      </c>
+      <c r="C152" s="2">
+        <v>45935</v>
       </c>
       <c r="D152" t="b">
         <v>1</v>
-      </c>
-      <c r="E152" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>96</v>
-      </c>
-      <c r="B153" s="1">
-        <v>45570</v>
-      </c>
-      <c r="C153" s="1">
-        <v>45570</v>
+        <v>79</v>
+      </c>
+      <c r="B153" s="2">
+        <v>45934</v>
+      </c>
+      <c r="C153" s="2">
+        <v>45934</v>
       </c>
       <c r="D153" t="b">
         <v>1</v>
       </c>
-      <c r="E153" t="s">
-        <v>188</v>
+      <c r="E153" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>97</v>
-      </c>
-      <c r="B154" s="1">
-        <v>45570</v>
-      </c>
-      <c r="C154" s="1">
-        <v>45570</v>
+        <v>80</v>
+      </c>
+      <c r="B154" s="2">
+        <v>45934</v>
+      </c>
+      <c r="C154" s="2">
+        <v>45934</v>
       </c>
       <c r="D154" t="b">
         <v>1</v>
       </c>
-      <c r="E154" t="s">
-        <v>181</v>
+      <c r="E154" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>98</v>
-      </c>
-      <c r="B155" s="1">
-        <v>45570</v>
-      </c>
-      <c r="C155" s="1">
-        <v>45570</v>
+        <v>82</v>
+      </c>
+      <c r="B155" s="2">
+        <v>45934</v>
+      </c>
+      <c r="C155" s="2">
+        <v>45934</v>
       </c>
       <c r="D155" t="b">
         <v>1</v>
       </c>
       <c r="E155" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>99</v>
-      </c>
-      <c r="B156" s="1">
-        <v>45571</v>
-      </c>
-      <c r="C156" s="1">
-        <v>45571</v>
+        <v>83</v>
+      </c>
+      <c r="B156" s="2">
+        <v>45934</v>
+      </c>
+      <c r="C156" s="2">
+        <v>45934</v>
       </c>
       <c r="D156" t="b">
         <v>1</v>
       </c>
-      <c r="E156" s="2" t="s">
-        <v>174</v>
+      <c r="E156" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>100</v>
-      </c>
-      <c r="B157" s="1">
-        <v>45571</v>
-      </c>
-      <c r="C157" s="1">
-        <v>45571</v>
+        <v>81</v>
+      </c>
+      <c r="B157" s="2">
+        <v>45934</v>
+      </c>
+      <c r="C157" s="2">
+        <v>45934</v>
       </c>
       <c r="D157" t="b">
         <v>1</v>
       </c>
       <c r="E157" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>101</v>
-      </c>
-      <c r="B158" s="1">
-        <v>45584</v>
-      </c>
-      <c r="C158" s="1">
-        <v>45584</v>
+        <v>164</v>
+      </c>
+      <c r="B158" s="2">
+        <v>45934</v>
+      </c>
+      <c r="C158" s="2">
+        <v>45934</v>
       </c>
       <c r="D158" t="b">
         <v>1</v>
       </c>
       <c r="E158" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>102</v>
-      </c>
-      <c r="B159" s="1">
-        <v>45584</v>
-      </c>
-      <c r="C159" s="1">
-        <v>45584</v>
+        <v>68</v>
+      </c>
+      <c r="B159" s="2">
+        <v>45934</v>
+      </c>
+      <c r="C159" s="2">
+        <v>45934</v>
       </c>
       <c r="D159" t="b">
         <v>1</v>
       </c>
       <c r="E159" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>165</v>
-      </c>
-      <c r="B160" s="1">
-        <v>45586</v>
-      </c>
-      <c r="C160" s="1">
-        <v>45586</v>
+        <v>84</v>
+      </c>
+      <c r="B160" s="2">
+        <v>45935</v>
+      </c>
+      <c r="C160" s="2">
+        <v>45935</v>
       </c>
       <c r="D160" t="b">
         <v>1</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>166</v>
-      </c>
-      <c r="B161" s="1">
-        <v>45593</v>
-      </c>
-      <c r="C161" s="1">
-        <v>45593</v>
+        <v>85</v>
+      </c>
+      <c r="B161" s="2">
+        <v>45935</v>
+      </c>
+      <c r="C161" s="2">
+        <v>45935</v>
       </c>
       <c r="D161" t="b">
         <v>1</v>
+      </c>
+      <c r="E161" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>167</v>
-      </c>
-      <c r="B162" s="1">
-        <v>45594</v>
-      </c>
-      <c r="C162" s="1">
-        <v>45594</v>
+        <v>76</v>
+      </c>
+      <c r="B162" s="2">
+        <v>45935</v>
+      </c>
+      <c r="C162" s="2">
+        <v>45935</v>
       </c>
       <c r="D162" t="b">
         <v>1</v>
+      </c>
+      <c r="E162" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>168</v>
-      </c>
-      <c r="B163" s="1">
-        <v>45596</v>
-      </c>
-      <c r="C163" s="1">
-        <v>45596</v>
+        <v>187</v>
+      </c>
+      <c r="B163" s="2">
+        <v>45941</v>
+      </c>
+      <c r="C163" s="2">
+        <v>45941</v>
       </c>
       <c r="D163" t="b">
         <v>1</v>
@@ -3582,121 +3590,225 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>103</v>
-      </c>
-      <c r="B164" s="1">
-        <v>45597</v>
-      </c>
-      <c r="C164" s="1">
-        <v>45597</v>
+        <v>86</v>
+      </c>
+      <c r="B164" s="2">
+        <v>45948</v>
+      </c>
+      <c r="C164" s="2">
+        <v>45948</v>
       </c>
       <c r="D164" t="b">
         <v>1</v>
       </c>
       <c r="E164" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>104</v>
-      </c>
-      <c r="B165" s="1">
-        <v>45597</v>
-      </c>
-      <c r="C165" s="1">
-        <v>45597</v>
+        <v>87</v>
+      </c>
+      <c r="B165" s="2">
+        <v>45948</v>
+      </c>
+      <c r="C165" s="2">
+        <v>45948</v>
       </c>
       <c r="D165" t="b">
         <v>1</v>
       </c>
       <c r="E165" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>105</v>
-      </c>
-      <c r="B166" s="1">
-        <v>45598</v>
-      </c>
-      <c r="C166" s="1">
-        <v>45598</v>
+        <v>188</v>
+      </c>
+      <c r="B166" s="2">
+        <v>45948</v>
+      </c>
+      <c r="C166" s="2">
+        <v>45948</v>
       </c>
       <c r="D166" t="b">
         <v>1</v>
-      </c>
-      <c r="E166" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>106</v>
-      </c>
-      <c r="B167" s="1">
-        <v>45598</v>
-      </c>
-      <c r="C167" s="1">
-        <v>45598</v>
+        <v>165</v>
+      </c>
+      <c r="B167" s="2">
+        <v>45950</v>
+      </c>
+      <c r="C167" s="2">
+        <v>45950</v>
       </c>
       <c r="D167" t="b">
         <v>1</v>
-      </c>
-      <c r="E167" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>107</v>
-      </c>
-      <c r="B168" s="1">
-        <v>45598</v>
-      </c>
-      <c r="C168" s="1">
-        <v>45598</v>
+        <v>131</v>
+      </c>
+      <c r="B168" s="2">
+        <v>45957</v>
+      </c>
+      <c r="C168" s="2">
+        <v>45957</v>
       </c>
       <c r="D168" t="b">
         <v>1</v>
-      </c>
-      <c r="E168" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>108</v>
-      </c>
-      <c r="B169" s="1">
-        <v>45598</v>
-      </c>
-      <c r="C169" s="1">
-        <v>45598</v>
+        <v>197</v>
+      </c>
+      <c r="B169" s="2">
+        <v>45958</v>
+      </c>
+      <c r="C169" s="2">
+        <v>45961</v>
       </c>
       <c r="D169" t="b">
         <v>1</v>
-      </c>
-      <c r="E169" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>109</v>
-      </c>
-      <c r="B170" s="1">
-        <v>45598</v>
-      </c>
-      <c r="C170" s="1">
-        <v>45598</v>
+        <v>88</v>
+      </c>
+      <c r="B170" s="2">
+        <v>45961</v>
+      </c>
+      <c r="C170" s="2">
+        <v>45961</v>
       </c>
       <c r="D170" t="b">
         <v>1</v>
       </c>
       <c r="E170" t="s">
-        <v>178</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>89</v>
+      </c>
+      <c r="B171" s="2">
+        <v>45961</v>
+      </c>
+      <c r="C171" s="2">
+        <v>45961</v>
+      </c>
+      <c r="D171" t="b">
+        <v>1</v>
+      </c>
+      <c r="E171" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>189</v>
+      </c>
+      <c r="B172" s="2">
+        <v>45961</v>
+      </c>
+      <c r="C172" s="2">
+        <v>45962</v>
+      </c>
+      <c r="D172" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>90</v>
+      </c>
+      <c r="B173" s="2">
+        <v>45962</v>
+      </c>
+      <c r="C173" s="2">
+        <v>45962</v>
+      </c>
+      <c r="D173" t="b">
+        <v>1</v>
+      </c>
+      <c r="E173" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>91</v>
+      </c>
+      <c r="B174" s="2">
+        <v>45962</v>
+      </c>
+      <c r="C174" s="2">
+        <v>45962</v>
+      </c>
+      <c r="D174" t="b">
+        <v>1</v>
+      </c>
+      <c r="E174" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>92</v>
+      </c>
+      <c r="B175" s="2">
+        <v>45962</v>
+      </c>
+      <c r="C175" s="2">
+        <v>45962</v>
+      </c>
+      <c r="D175" t="b">
+        <v>1</v>
+      </c>
+      <c r="E175" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>93</v>
+      </c>
+      <c r="B176" s="2">
+        <v>45962</v>
+      </c>
+      <c r="C176" s="2">
+        <v>45962</v>
+      </c>
+      <c r="D176" t="b">
+        <v>1</v>
+      </c>
+      <c r="E176" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>94</v>
+      </c>
+      <c r="B177" s="2">
+        <v>45962</v>
+      </c>
+      <c r="C177" s="2">
+        <v>45962</v>
+      </c>
+      <c r="D177" t="b">
+        <v>1</v>
+      </c>
+      <c r="E177" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
